--- a/biology/Histoire de la zoologie et de la botanique/Leopold_Melichar/Leopold_Melichar.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Leopold_Melichar/Leopold_Melichar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leopold Melichar (1856–1924) est un entomologiste morave. Il s'est principalement intéressé aux hémiptères.
 Sa collection est conservée au Moravske Museum, à Brno en République tchèque.
@@ -514,16 +526,157 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1900
-Melichar L., 1900. Beitrag zur Keinntniss der Homopteren-Fauna von Sibirien und Transbaikal. Wiener Entomologische Zeitung.
-1901
-Melichar L., 1901. Monographie der Acanaloniiden und Flatiden (Homoptera). I. Theil. Annalen des Naturhistorischen Museums in Wien.
-1915
-Melichar L., 1915. Monographie der Lophopinen. Annales Historico-Naturales Musei Nationalis Hungarici 13: 337–385.
-1923
-Melichar L., 1923. Homoptera: fam. Acanaloniidae, Flatidae et Ricaniidae. PAG Wytsman.
-1926
-Melichar L., 1926 (†). Monographie der Cicadellinen. III. Annale Musei Nationalis Hungarici 23: 273–394.</t>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Melichar L., 1900. Beitrag zur Keinntniss der Homopteren-Fauna von Sibirien und Transbaikal. Wiener Entomologische Zeitung.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Melichar L., 1901. Monographie der Acanaloniiden und Flatiden (Homoptera). I. Theil. Annalen des Naturhistorischen Museums in Wien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1915</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Melichar L., 1915. Monographie der Lophopinen. Annales Historico-Naturales Musei Nationalis Hungarici 13: 337–385.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Melichar L., 1923. Homoptera: fam. Acanaloniidae, Flatidae et Ricaniidae. PAG Wytsman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leopold_Melichar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1926</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Melichar L., 1926 (†). Monographie der Cicadellinen. III. Annale Musei Nationalis Hungarici 23: 273–394.</t>
         </is>
       </c>
     </row>
